--- a/stage2_excels/GA/GA_kfold_one.xlsx
+++ b/stage2_excels/GA/GA_kfold_one.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8833525499052051</v>
+        <v>0.8833525499052142</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8735390977175808</v>
+        <v>0.8735390977176838</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8442814670678395</v>
+        <v>0.8442814670678397</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8348648588697209</v>
+        <v>0.834864858870014</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8336002588750052</v>
+        <v>0.8336002588750135</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.832358338537599</v>
+        <v>0.8323583384949655</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.832340208054944</v>
+        <v>0.8323402080567577</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8320169391971903</v>
+        <v>0.83201693919719</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8282056678293038</v>
+        <v>0.8282056678293073</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8192031863927023</v>
+        <v>0.8192031863430712</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8191285619172198</v>
+        <v>0.8191285619019295</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.812673396136114</v>
+        <v>0.8126733961781296</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8107644954856885</v>
+        <v>0.8107644954884419</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8097398011453414</v>
+        <v>0.8097398011453413</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8086572827962734</v>
+        <v>0.8086572827876719</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7934577116967653</v>
+        <v>0.7934577117081909</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7757058268657693</v>
+        <v>0.7757058268657838</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7727496346990157</v>
+        <v>0.7727496346990078</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7705411486673956</v>
+        <v>0.7705411486674116</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7698777386290182</v>
+        <v>0.7698777386290004</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7635679527201438</v>
+        <v>0.7635679527201482</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7618227275136368</v>
+        <v>0.761822727513641</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7605502891276424</v>
+        <v>0.7605502891415518</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7542368777082933</v>
+        <v>0.7542368777082537</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7535830010233624</v>
+        <v>0.7535830010233737</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7535067959913888</v>
+        <v>0.7535067959935283</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7532181531777333</v>
+        <v>0.7532181531801281</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7523073999137538</v>
+        <v>0.7523073999266291</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7422764722055876</v>
+        <v>0.7422764722055957</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7422695585385678</v>
+        <v>0.7422695585386113</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7414898067623638</v>
+        <v>0.7414898067623505</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7392462459361558</v>
+        <v>0.7392462459362497</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7384564912263611</v>
+        <v>0.7384564912263428</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7375696837597362</v>
+        <v>0.737569683759736</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7358884741807967</v>
+        <v>0.7358884741807998</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7288542506059412</v>
+        <v>0.7288542506064586</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7273043853451808</v>
+        <v>0.7273043853452167</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7207108115138128</v>
+        <v>0.7207108113890754</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7206533850745113</v>
+        <v>0.7206533850745342</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7201829638582142</v>
+        <v>0.7201829638581716</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7186803247681901</v>
+        <v>0.7186803248415468</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>0.717758031017523</v>
+        <v>0.7177580309899243</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0.717337260829771</v>
+        <v>0.7173372608169271</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7111362457611834</v>
+        <v>0.7111362457893227</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7044209882686429</v>
+        <v>0.7044209882686431</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7029478844412018</v>
+        <v>0.7029478844412019</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6987363516756151</v>
+        <v>0.6987363516844824</v>
       </c>
     </row>
     <row r="49">
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6948502460717876</v>
+        <v>0.6948502460187157</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6937159393800947</v>
+        <v>0.6937159393798471</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6911312611224745</v>
+        <v>0.6911312611315982</v>
       </c>
     </row>
     <row r="53">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.684845547413695</v>
+        <v>0.6848455474136947</v>
       </c>
     </row>
     <row r="55">
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6758244388129228</v>
+        <v>0.6758244388129027</v>
       </c>
     </row>
     <row r="56">
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6680417516317052</v>
+        <v>0.6680417516317106</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6596057757760507</v>
+        <v>0.6596057757785523</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6579879892138302</v>
+        <v>0.6579879892042616</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.65191336986935</v>
+        <v>0.6519133698693497</v>
       </c>
     </row>
     <row r="61">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6199209207757105</v>
+        <v>0.6199209207757104</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6173003126493412</v>
+        <v>0.6173003126493415</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6167074996020292</v>
+        <v>0.6167074996020293</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.612463449926673</v>
+        <v>0.6124634499266732</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6082659917457358</v>
+        <v>0.6082659917457361</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6017570673413257</v>
+        <v>0.6017570675878184</v>
       </c>
     </row>
     <row r="72">
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5983297615831669</v>
+        <v>0.5983297615831671</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5967508215829984</v>
+        <v>0.5967508215829987</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5886871605863094</v>
+        <v>0.5886871605863048</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5826044130752452</v>
+        <v>0.5826044130752285</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5759871039162425</v>
+        <v>0.5759871039166823</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5655319557587131</v>
+        <v>0.565531955758784</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4639354733161243</v>
+        <v>0.4639354733161244</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4599035559610214</v>
+        <v>0.4599035559610211</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4581545607578872</v>
+        <v>0.458154560757887</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3922175513995031</v>
+        <v>0.3922175513567056</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357790378510509</v>
+        <v>0.3577903785105092</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3575874380712406</v>
+        <v>0.3575874380712408</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3491304339292599</v>
+        <v>0.34913043392926</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3446929351397762</v>
+        <v>0.3446929351397784</v>
       </c>
     </row>
     <row r="87">
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3242499603283291</v>
+        <v>0.324249960328329</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3239411871878202</v>
+        <v>0.3239411871878203</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3210133660649822</v>
+        <v>0.3210133659459483</v>
       </c>
     </row>
     <row r="91">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3033897430099747</v>
+        <v>0.3033897430104791</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2771565704464962</v>
+        <v>0.2771565704465161</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2768118026234382</v>
+        <v>0.2768118026234242</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2637659168957984</v>
+        <v>0.2637659168948666</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2637149897766449</v>
+        <v>0.263714989776351</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>0.242418460210772</v>
+        <v>0.2424184602107797</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2138366850661728</v>
+        <v>0.2138366850660423</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2046045756992443</v>
+        <v>0.2046045757011297</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1856886588954145</v>
+        <v>0.1856886588956046</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1812111082751883</v>
+        <v>0.1812111082751877</v>
       </c>
     </row>
     <row r="102">
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1609646246801488</v>
+        <v>0.1609646264990026</v>
       </c>
     </row>
     <row r="103">
@@ -1773,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1599706328759453</v>
+        <v>0.1599706315372821</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1589774153050426</v>
+        <v>0.1589774153080858</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>0.15528414347036</v>
+        <v>0.1552841434860414</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1541808690572706</v>
+        <v>0.1541808690631343</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1536059830014123</v>
+        <v>0.1536059829930842</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1480544143530655</v>
+        <v>0.1480544138543893</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1428483647697138</v>
+        <v>0.1428483647697146</v>
       </c>
     </row>
     <row r="110">
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1289825929414088</v>
+        <v>0.1289825929428554</v>
       </c>
     </row>
     <row r="111">
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1243451421766208</v>
+        <v>0.1243451421766445</v>
       </c>
     </row>
     <row r="112">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08629554947840776</v>
+        <v>0.08629554947840767</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.060445526589521</v>
+        <v>0.06044552658952083</v>
       </c>
     </row>
     <row r="115">
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04974775959030362</v>
+        <v>0.04974775959030333</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>0.02347801147275117</v>
+        <v>0.02347801147239992</v>
       </c>
     </row>
     <row r="117">
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>0.004460137670034436</v>
+        <v>0.004460137656245866</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.003826255896326924</v>
+        <v>0.003826255896326991</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.01870169003773019</v>
+        <v>-0.01870169003793119</v>
       </c>
     </row>
     <row r="120">
@@ -1994,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.06343276819842307</v>
+        <v>-0.06343276585561161</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.08883871396640738</v>
+        <v>-0.08883871396640711</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.09444615485562413</v>
+        <v>-0.09444615485562409</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.0964569270598729</v>
+        <v>-0.09645691777650212</v>
       </c>
     </row>
     <row r="124">
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1051690646779192</v>
+        <v>-0.1051690646766156</v>
       </c>
     </row>
     <row r="125">
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.139930764297396</v>
+        <v>-0.1399307642973972</v>
       </c>
     </row>
     <row r="126">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1570804765324513</v>
+        <v>-0.1570804765324512</v>
       </c>
     </row>
     <row r="127">
@@ -2085,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.1787323347734859</v>
+        <v>-0.1787323251377312</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.179189979979209</v>
+        <v>-0.179189979985379</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.179759905760438</v>
+        <v>-0.179759905759914</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.1912072312259182</v>
+        <v>-0.1912072312259175</v>
       </c>
     </row>
     <row r="131">
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1914100870924518</v>
+        <v>-0.1914100870926433</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.2320749429114454</v>
+        <v>-0.2320749381843484</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.2592218006960151</v>
+        <v>-0.259221800695945</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.2671129119071985</v>
+        <v>-0.2671129119071983</v>
       </c>
     </row>
     <row r="136">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.2672825137995131</v>
+        <v>-0.267282513799513</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.2723171213997154</v>
+        <v>-0.2723171213997394</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.2806766828483519</v>
+        <v>-0.2806766828485614</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.292603081970983</v>
+        <v>-0.2926030819710378</v>
       </c>
     </row>
     <row r="140">
@@ -2254,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.303587927063956</v>
+        <v>-0.3035879270651793</v>
       </c>
     </row>
     <row r="141">
@@ -2267,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.3086147291008278</v>
+        <v>-0.3086147288899539</v>
       </c>
     </row>
     <row r="142">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.31647946341666</v>
+        <v>-0.316479463416609</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.3231726799164065</v>
+        <v>-0.32317268253595</v>
       </c>
     </row>
     <row r="162">
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.34238732743421</v>
+        <v>-0.3423873274342107</v>
       </c>
     </row>
     <row r="163">
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.3523280640734522</v>
+        <v>-0.3523280640712372</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.3573216839821689</v>
+        <v>-0.3573216853185634</v>
       </c>
     </row>
     <row r="165">
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.3614109093628</v>
+        <v>-0.3614109093627985</v>
       </c>
     </row>
     <row r="166">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.372373764433369</v>
+        <v>-0.3723737655278068</v>
       </c>
     </row>
     <row r="167">
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.4520277641506362</v>
+        <v>-0.4520277650962409</v>
       </c>
     </row>
     <row r="168">
@@ -2618,7 +2618,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.4769376976624077</v>
+        <v>-0.4769376976639831</v>
       </c>
     </row>
     <row r="169">
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.5100429210836062</v>
+        <v>-0.5100429210839366</v>
       </c>
     </row>
     <row r="170">
@@ -2644,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.5639953814092461</v>
+        <v>-0.563995381409258</v>
       </c>
     </row>
     <row r="171">
@@ -2657,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.5891641125886232</v>
+        <v>-0.5891640909947371</v>
       </c>
     </row>
     <row r="172">
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.6202597142448548</v>
+        <v>-0.6202597142448546</v>
       </c>
     </row>
     <row r="173">
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.62605301493833</v>
+        <v>-0.6260530149383314</v>
       </c>
     </row>
     <row r="174">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.6979793656980171</v>
+        <v>-0.6979793656980176</v>
       </c>
     </row>
     <row r="176">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.6979793656980176</v>
+        <v>-0.697979365698018</v>
       </c>
     </row>
     <row r="177">
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.7246609336946063</v>
+        <v>-0.7246609336946064</v>
       </c>
     </row>
     <row r="179">
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.7470025206821905</v>
+        <v>-0.7470025206821893</v>
       </c>
     </row>
     <row r="180">
@@ -2774,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.8056406036793146</v>
+        <v>-0.8056406036789967</v>
       </c>
     </row>
     <row r="181">
@@ -2787,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.8194936719963788</v>
+        <v>-0.8194936719905407</v>
       </c>
     </row>
     <row r="182">
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.8441096219284733</v>
+        <v>-0.8441096219284739</v>
       </c>
     </row>
     <row r="183">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.8571204434357476</v>
+        <v>-0.8571204434357469</v>
       </c>
     </row>
     <row r="184">
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.8631099415311485</v>
+        <v>-0.8631099415329121</v>
       </c>
     </row>
     <row r="185">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.9305752850882667</v>
+        <v>-0.9305752850882669</v>
       </c>
     </row>
     <row r="186">
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.9466290313979773</v>
+        <v>-0.9466290313979775</v>
       </c>
     </row>
     <row r="187">
@@ -2904,7 +2904,7 @@
         <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.9945768343080598</v>
+        <v>-0.9945768005671256</v>
       </c>
     </row>
     <row r="191">
@@ -2943,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.124828209191777</v>
+        <v>-1.12482820919107</v>
       </c>
     </row>
     <row r="194">
@@ -2956,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="C194" t="n">
-        <v>-1.138263501772721</v>
+        <v>-1.138263501773187</v>
       </c>
     </row>
     <row r="195">
@@ -2969,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.173150377494139</v>
+        <v>-1.173150377494151</v>
       </c>
     </row>
     <row r="196">
@@ -2982,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="C196" t="n">
-        <v>-1.276647391852237</v>
+        <v>-1.276647391852126</v>
       </c>
     </row>
     <row r="197">
@@ -2995,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.358260161833769</v>
+        <v>-1.358260162003572</v>
       </c>
     </row>
     <row r="198">
@@ -3008,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.413866747261862</v>
+        <v>-1.413866747262771</v>
       </c>
     </row>
     <row r="199">
@@ -3021,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.445098996330641</v>
+        <v>-1.445098996330359</v>
       </c>
     </row>
     <row r="200">
@@ -3034,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.501295421453472</v>
+        <v>-1.501295421455247</v>
       </c>
     </row>
     <row r="201">
@@ -3047,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>-1.503818106900477</v>
+        <v>-1.503818106903616</v>
       </c>
     </row>
     <row r="202">
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.527059608983262</v>
+        <v>-1.527059608983277</v>
       </c>
     </row>
     <row r="203">
@@ -3073,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.552403819770322</v>
+        <v>-1.552403837290982</v>
       </c>
     </row>
     <row r="204">
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.555762001318172</v>
+        <v>-1.55576200131338</v>
       </c>
     </row>
     <row r="205">
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>-1.69442301201517</v>
+        <v>-1.694423012015169</v>
       </c>
     </row>
     <row r="207">
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.718106864419396</v>
+        <v>-1.718106864419395</v>
       </c>
     </row>
     <row r="208">
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.730748124178861</v>
+        <v>-1.730748124179646</v>
       </c>
     </row>
     <row r="209">
@@ -3151,7 +3151,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>-1.737627657457878</v>
+        <v>-1.737627658947979</v>
       </c>
     </row>
     <row r="210">
@@ -3164,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="C210" t="n">
-        <v>-1.802520808694581</v>
+        <v>-1.802520808694559</v>
       </c>
     </row>
     <row r="211">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.841121460858151</v>
+        <v>-1.841121460858147</v>
       </c>
     </row>
     <row r="212">
@@ -3190,7 +3190,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>-1.901858058935247</v>
+        <v>-1.901858058936151</v>
       </c>
     </row>
     <row r="213">
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>-2.030270785619791</v>
+        <v>-2.030270799654582</v>
       </c>
     </row>
     <row r="214">
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.05399795637224</v>
+        <v>-2.053997956372241</v>
       </c>
     </row>
     <row r="215">
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>-2.079611182714308</v>
+        <v>-2.079611182714315</v>
       </c>
     </row>
     <row r="216">
@@ -3242,7 +3242,7 @@
         <v>2</v>
       </c>
       <c r="C216" t="n">
-        <v>-2.127516031390142</v>
+        <v>-2.127516031389899</v>
       </c>
     </row>
     <row r="217">
@@ -3255,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>-2.151466798716004</v>
+        <v>-2.151466798111483</v>
       </c>
     </row>
     <row r="218">
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>-2.171417884358716</v>
+        <v>-2.171417884358717</v>
       </c>
     </row>
     <row r="219">
@@ -3281,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="C219" t="n">
-        <v>-2.17366693033982</v>
+        <v>-2.173666919727526</v>
       </c>
     </row>
     <row r="220">
@@ -3294,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="C220" t="n">
-        <v>-2.180108658890226</v>
+        <v>-2.18010865888984</v>
       </c>
     </row>
     <row r="221">
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>-2.233465061505954</v>
+        <v>-2.233465061505962</v>
       </c>
     </row>
     <row r="222">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>-2.240122225260754</v>
+        <v>-2.240122225260757</v>
       </c>
     </row>
     <row r="223">
@@ -3333,7 +3333,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="n">
-        <v>-2.381200038299619</v>
+        <v>-2.381200033133815</v>
       </c>
     </row>
     <row r="224">
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="C225" t="n">
-        <v>-2.482453185875561</v>
+        <v>-2.482453185875566</v>
       </c>
     </row>
     <row r="226">
@@ -3372,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="C226" t="n">
-        <v>-2.495496244575668</v>
+        <v>-2.495496244577227</v>
       </c>
     </row>
     <row r="227">
@@ -3385,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="C227" t="n">
-        <v>-2.51070642923628</v>
+        <v>-2.510706428766057</v>
       </c>
     </row>
     <row r="228">
@@ -3411,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="C229" t="n">
-        <v>-2.573557152948759</v>
+        <v>-2.57355714906308</v>
       </c>
     </row>
     <row r="230">
@@ -3424,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="C230" t="n">
-        <v>-2.828818826576952</v>
+        <v>-2.828818826576766</v>
       </c>
     </row>
     <row r="231">
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>-2.856909289135693</v>
+        <v>-2.856909289135695</v>
       </c>
     </row>
     <row r="232">
@@ -3450,7 +3450,7 @@
         <v>2</v>
       </c>
       <c r="C232" t="n">
-        <v>-3.267937453036306</v>
+        <v>-3.267937453036272</v>
       </c>
     </row>
     <row r="233">
@@ -3463,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="C233" t="n">
-        <v>-3.510318115566152</v>
+        <v>-3.510318115566155</v>
       </c>
     </row>
     <row r="234">
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>-3.544877276770433</v>
+        <v>-3.544877276770432</v>
       </c>
     </row>
     <row r="236">
@@ -3502,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="C236" t="n">
-        <v>-3.7311077763262</v>
+        <v>-3.7311077763272</v>
       </c>
     </row>
     <row r="237">
@@ -3515,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C237" t="n">
-        <v>-3.845340758348221</v>
+        <v>-3.845340758348196</v>
       </c>
     </row>
     <row r="238">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>-4.15561730930774</v>
+        <v>-4.155617309307742</v>
       </c>
     </row>
     <row r="240">
@@ -3554,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="C240" t="n">
-        <v>-4.20568714712482</v>
+        <v>-4.205687145987847</v>
       </c>
     </row>
     <row r="241">
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="C241" t="n">
-        <v>-4.768662018497442</v>
+        <v>-4.768662018497403</v>
       </c>
     </row>
     <row r="242">
@@ -3580,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="C242" t="n">
-        <v>-6.281423310690674</v>
+        <v>-6.281422793960565</v>
       </c>
     </row>
     <row r="243">
@@ -3593,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="n">
-        <v>-6.416493801751916</v>
+        <v>-6.416493801830048</v>
       </c>
     </row>
     <row r="244">
@@ -3606,7 +3606,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>-6.716736264233084</v>
+        <v>-6.716736264233605</v>
       </c>
     </row>
     <row r="245">
@@ -3619,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="C245" t="n">
-        <v>-7.637946490282383</v>
+        <v>-7.637946490280896</v>
       </c>
     </row>
     <row r="246">
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>-8.035476010210807</v>
+        <v>-8.035476010210809</v>
       </c>
     </row>
     <row r="247">
@@ -3645,7 +3645,7 @@
         <v>3</v>
       </c>
       <c r="C247" t="n">
-        <v>-8.761984894245121</v>
+        <v>-8.761987729588821</v>
       </c>
     </row>
     <row r="248">
@@ -3658,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="C248" t="n">
-        <v>-10.22830309026381</v>
+        <v>-10.22830309018545</v>
       </c>
     </row>
     <row r="249">
@@ -3671,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>-11.02446150621915</v>
+        <v>-11.02446150622842</v>
       </c>
     </row>
     <row r="250">
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="C250" t="n">
-        <v>-11.65820710350659</v>
+        <v>-11.65820710394314</v>
       </c>
     </row>
     <row r="251">
@@ -3697,7 +3697,7 @@
         <v>3</v>
       </c>
       <c r="C251" t="n">
-        <v>-16.24451664340296</v>
+        <v>-16.24451664339949</v>
       </c>
     </row>
     <row r="252">
@@ -3710,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="C252" t="n">
-        <v>-17.56485733511361</v>
+        <v>-17.56485733513981</v>
       </c>
     </row>
     <row r="253">
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>-23.05620287120621</v>
+        <v>-23.05620287120622</v>
       </c>
     </row>
     <row r="254">
@@ -3736,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="C254" t="n">
-        <v>-24.60706666435881</v>
+        <v>-24.60706666435375</v>
       </c>
     </row>
     <row r="255">
@@ -3749,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>-26.00044748536265</v>
+        <v>-26.00044744068197</v>
       </c>
     </row>
     <row r="256">
@@ -3762,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="n">
-        <v>-32.75166965022584</v>
+        <v>-32.75167047932034</v>
       </c>
     </row>
     <row r="257">
@@ -3775,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="C257" t="n">
-        <v>-447.2221247740172</v>
+        <v>-447.2221247740143</v>
       </c>
     </row>
     <row r="258">
@@ -3788,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>-453.7010818623201</v>
+        <v>-453.7010818623206</v>
       </c>
     </row>
     <row r="259">
@@ -3801,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="n">
-        <v>-465.5245656936007</v>
+        <v>-465.5245656933577</v>
       </c>
     </row>
     <row r="260">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="n">
-        <v>-1043.457151888505</v>
+        <v>-1043.457148849981</v>
       </c>
     </row>
     <row r="261">
@@ -3827,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="C261" t="n">
-        <v>-1365.111075948093</v>
+        <v>-1365.111075948119</v>
       </c>
     </row>
     <row r="262">
@@ -3866,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="C264" t="n">
-        <v>-1624.950550054391</v>
+        <v>-1624.950550054278</v>
       </c>
     </row>
     <row r="265">
@@ -3879,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="C265" t="n">
-        <v>-1639.573328688163</v>
+        <v>-1639.573335496462</v>
       </c>
     </row>
     <row r="266">
@@ -3905,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="C267" t="n">
-        <v>-2162.527358735414</v>
+        <v>-2162.527352947152</v>
       </c>
     </row>
     <row r="268">
@@ -3918,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="C268" t="n">
-        <v>-2169.046335222391</v>
+        <v>-2169.046335222325</v>
       </c>
     </row>
     <row r="269">
@@ -3944,10 +3944,10 @@
         <v>2</v>
       </c>
       <c r="C270" t="n">
-        <v>-18273.02086943654</v>
+        <v>-18273.02086943658</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>